--- a/input/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\source\resources\source-data\capstatements-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2857B7-C0E5-4D2D-A939-306D8F2CE7EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8026B241-E1E4-4AEE-8C61-FF3B8FF304B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-465" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1785" yWindow="1095" windowWidth="25200" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="10" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="4" r:id="rId4"/>
-    <sheet name="ops" sheetId="5" r:id="rId5"/>
-    <sheet name="interactions" sheetId="6" r:id="rId6"/>
-    <sheet name="rest_interactions" sheetId="11" r:id="rId7"/>
-    <sheet name="sps" sheetId="7" r:id="rId8"/>
-    <sheet name="sp_combos" sheetId="8" r:id="rId9"/>
+    <sheet name="config" sheetId="12" r:id="rId2"/>
+    <sheet name="igs" sheetId="10" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="4" r:id="rId5"/>
+    <sheet name="ops" sheetId="5" r:id="rId6"/>
+    <sheet name="interactions" sheetId="6" r:id="rId7"/>
+    <sheet name="rest_interactions" sheetId="11" r:id="rId8"/>
+    <sheet name="sps" sheetId="7" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="8" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sp_combos!$B$1:$B$81</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">sps!$A$1:$AB$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">sp_combos!$B$1:$B$81</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">sps!$A$1:$AB$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="107">
   <si>
     <t>Element</t>
   </si>
@@ -333,25 +334,67 @@
     <t>fhirVersion</t>
   </si>
   <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>0.1.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.0</t>
-  </si>
-  <si>
     <t>query-requester</t>
   </si>
   <si>
     <t>Refer to the  *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* CapabiltyStatement for the US Core Client</t>
   </si>
   <si>
-    <t>This CapabilityStatement describes the expected capabilities of a client that is capable of responding a Da Vinci Notification with a  follow up FHIR RESTful query to the Sender.  These expectations are the same as described in the *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.0* [CapabiltyStatement for the US Core Client](http://hl7.org/fhir/us/core/STU3.1/CapabilityStatement-us-core-client.html)</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|0.1.0</t>
+    <t>source</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/input/</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/output/</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>HL7 International - Infrastructure and Messaging Work Group</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/inm/index.cfm</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
+  </si>
+  <si>
+    <t>This CapabilityStatement describes the expected capabilities of a client that is capable of responding a Da Vinci Notification with a  follow up FHIR RESTful query to the Sender.  These expectations are the same as described in the *HL7 FHIR® US Core Implementation Guide STU3 Release 3.1.1* [CapabiltyStatement for the US Core Client](http://hl7.org/fhir/us/core/STU3.1.1/CapabilityStatement-us-core-client.html)</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ImplementationGuide/hl7.fhir.us.core|3.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|1.0.0</t>
   </si>
 </sst>
 </file>
@@ -828,7 +871,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -850,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="1" customFormat="1">
@@ -858,7 +901,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
@@ -866,7 +909,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -874,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -882,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -898,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="103.5" customHeight="1">
@@ -912,12 +955,654 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:P82"/>
+  <sheetViews>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" style="1" customWidth="1"/>
+    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
+      <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
+      <c r="B2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3"/>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="J3" s="5"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4"/>
+      <c r="D4"/>
+      <c r="E4"/>
+      <c r="F4"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+      <c r="F5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="H11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="H13" s="5"/>
+      <c r="J13" s="5"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="J14" s="5"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="J15" s="5"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="J16" s="5"/>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="J18" s="5"/>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="H22" s="5"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="J28" s="5"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+    </row>
+    <row r="36" spans="3:10" s="1" customFormat="1">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+    </row>
+    <row r="38" spans="3:10" s="1" customFormat="1">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+    </row>
+    <row r="39" spans="3:10" s="1" customFormat="1">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+    </row>
+    <row r="40" spans="3:10" s="1" customFormat="1">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+    </row>
+    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
+      <c r="H41" s="5"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="5"/>
+    </row>
+    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
+      <c r="H42" s="5"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="5"/>
+    </row>
+    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
+      <c r="H43" s="5"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="5"/>
+    </row>
+    <row r="44" spans="3:10" s="1" customFormat="1">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+    </row>
+    <row r="45" spans="3:10" s="1" customFormat="1">
+      <c r="C45" s="11"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+    </row>
+    <row r="46" spans="3:10" s="1" customFormat="1">
+      <c r="C46" s="11"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+    </row>
+    <row r="47" spans="3:10" s="1" customFormat="1">
+      <c r="C47" s="11"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+    </row>
+    <row r="48" spans="3:10" s="1" customFormat="1">
+      <c r="C48" s="11"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+    </row>
+    <row r="49" spans="3:10" s="1" customFormat="1">
+      <c r="C49" s="11"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+    </row>
+    <row r="50" spans="3:10" s="1" customFormat="1">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+    </row>
+    <row r="51" spans="3:10" s="1" customFormat="1">
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+    </row>
+    <row r="52" spans="3:10" s="1" customFormat="1">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+    </row>
+    <row r="53" spans="3:10" s="1" customFormat="1">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+    </row>
+    <row r="54" spans="3:10" s="1" customFormat="1">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+    </row>
+    <row r="55" spans="3:10" s="1" customFormat="1">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+    </row>
+    <row r="56" spans="3:10" s="1" customFormat="1">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+    </row>
+    <row r="57" spans="3:10" s="1" customFormat="1">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+    </row>
+    <row r="58" spans="3:10" s="1" customFormat="1">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+    </row>
+    <row r="59" spans="3:10" s="1" customFormat="1">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+    </row>
+    <row r="60" spans="3:10" s="1" customFormat="1">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+    </row>
+    <row r="61" spans="3:10" s="1" customFormat="1">
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+    </row>
+    <row r="62" spans="3:10" s="1" customFormat="1">
+      <c r="C62" s="11"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+    </row>
+    <row r="63" spans="3:10" s="1" customFormat="1">
+      <c r="C63" s="11"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+    </row>
+    <row r="64" spans="3:10" s="1" customFormat="1">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+    </row>
+    <row r="65" spans="3:16" s="1" customFormat="1">
+      <c r="C65" s="11"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+    </row>
+    <row r="66" spans="3:16" s="1" customFormat="1">
+      <c r="C66" s="11"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+    </row>
+    <row r="67" spans="3:16" s="1" customFormat="1">
+      <c r="C67" s="11"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+    </row>
+    <row r="68" spans="3:16" s="1" customFormat="1">
+      <c r="C68" s="11"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+    </row>
+    <row r="69" spans="3:16" s="1" customFormat="1">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+    </row>
+    <row r="70" spans="3:16" ht="15.75">
+      <c r="C70" s="10"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="3:16" s="1" customFormat="1">
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+    </row>
+    <row r="72" spans="3:16" s="1" customFormat="1">
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+    </row>
+    <row r="73" spans="3:16" s="1" customFormat="1">
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+    </row>
+    <row r="74" spans="3:16" s="1" customFormat="1">
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+    </row>
+    <row r="75" spans="3:16" s="1" customFormat="1">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+    </row>
+    <row r="76" spans="3:16" s="1" customFormat="1">
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+    </row>
+    <row r="77" spans="3:16" s="1" customFormat="1">
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+    </row>
+    <row r="78" spans="3:16" s="1" customFormat="1">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+    </row>
+    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
+      <c r="H79" s="5"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="5"/>
+    </row>
+    <row r="80" spans="3:16" s="1" customFormat="1">
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+    </row>
+    <row r="81" spans="8:10" s="1" customFormat="1">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+    </row>
+    <row r="82" spans="8:10" s="1" customFormat="1">
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0A030F-FC2A-4051-9281-CA8073C0AEA3}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A70CC787-78D8-4AA0-BE43-37746049F77C}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -941,7 +1626,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -952,7 +1637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -1064,7 +1749,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W39"/>
   <sheetViews>
@@ -1186,7 +1871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1234,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V10"/>
   <sheetViews>
@@ -1441,12 +2126,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D418CE29-40DC-476E-89CD-A42CEC26847E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1476,7 +2161,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AB93"/>
   <sheetViews>
@@ -2134,567 +2819,4 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P82"/>
-  <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G61" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B79" sqref="B79"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="2" max="2" width="21.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27" style="1" customWidth="1"/>
-    <col min="8" max="8" width="84.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="68.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="83.42578125" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" thickTop="1">
-      <c r="B2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="B3"/>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4"/>
-      <c r="D4"/>
-      <c r="E4"/>
-      <c r="F4"/>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="B5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-      <c r="F5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-      <c r="F6"/>
-      <c r="J6" s="5"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="B7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="B8"/>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9"/>
-      <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="B10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11"/>
-      <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="5"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="J12" s="5"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13"/>
-      <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="5"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14"/>
-      <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="J14" s="5"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15"/>
-      <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15"/>
-      <c r="J15" s="5"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16"/>
-      <c r="E16"/>
-      <c r="F16"/>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17"/>
-      <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18"/>
-      <c r="D18"/>
-      <c r="E18"/>
-      <c r="F18"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19"/>
-      <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20"/>
-      <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21"/>
-      <c r="J21" s="5"/>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="H22" s="5"/>
-      <c r="J22" s="5"/>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-    </row>
-    <row r="24" spans="2:10">
-      <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-    <row r="25" spans="2:10">
-      <c r="D25"/>
-      <c r="E25"/>
-      <c r="F25"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-    </row>
-    <row r="26" spans="2:10">
-      <c r="D26"/>
-      <c r="E26"/>
-      <c r="F26"/>
-      <c r="J26" s="5"/>
-    </row>
-    <row r="27" spans="2:10">
-      <c r="D27"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="2:10">
-      <c r="D28"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="J28" s="5"/>
-    </row>
-    <row r="29" spans="2:10">
-      <c r="B29"/>
-      <c r="D29"/>
-      <c r="E29"/>
-      <c r="F29"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-    </row>
-    <row r="30" spans="2:10">
-      <c r="B30"/>
-      <c r="D30"/>
-      <c r="E30"/>
-      <c r="F30"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-    </row>
-    <row r="31" spans="2:10">
-      <c r="B31"/>
-      <c r="D31"/>
-      <c r="E31"/>
-      <c r="F31"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-    </row>
-    <row r="32" spans="2:10">
-      <c r="B32"/>
-      <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-    </row>
-    <row r="33" spans="3:10">
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-    </row>
-    <row r="34" spans="3:10">
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-    </row>
-    <row r="35" spans="3:10">
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="3:10" s="1" customFormat="1">
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-    </row>
-    <row r="37" spans="3:10">
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-    </row>
-    <row r="38" spans="3:10" s="1" customFormat="1">
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-    </row>
-    <row r="39" spans="3:10" s="1" customFormat="1">
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-    </row>
-    <row r="40" spans="3:10" s="1" customFormat="1">
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-    </row>
-    <row r="41" spans="3:10" s="1" customFormat="1" ht="15.75">
-      <c r="H41" s="5"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="5"/>
-    </row>
-    <row r="42" spans="3:10" s="1" customFormat="1" ht="15.75">
-      <c r="H42" s="5"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="5"/>
-    </row>
-    <row r="43" spans="3:10" s="1" customFormat="1" ht="15.75">
-      <c r="H43" s="5"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="5"/>
-    </row>
-    <row r="44" spans="3:10" s="1" customFormat="1">
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-    </row>
-    <row r="45" spans="3:10" s="1" customFormat="1">
-      <c r="C45" s="11"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-    </row>
-    <row r="46" spans="3:10" s="1" customFormat="1">
-      <c r="C46" s="11"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-    </row>
-    <row r="47" spans="3:10" s="1" customFormat="1">
-      <c r="C47" s="11"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-    </row>
-    <row r="48" spans="3:10" s="1" customFormat="1">
-      <c r="C48" s="11"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-    </row>
-    <row r="49" spans="3:10" s="1" customFormat="1">
-      <c r="C49" s="11"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-    </row>
-    <row r="50" spans="3:10" s="1" customFormat="1">
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-    </row>
-    <row r="51" spans="3:10" s="1" customFormat="1">
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-    </row>
-    <row r="52" spans="3:10" s="1" customFormat="1">
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-    </row>
-    <row r="53" spans="3:10" s="1" customFormat="1">
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
-      <c r="J53" s="5"/>
-    </row>
-    <row r="54" spans="3:10" s="1" customFormat="1">
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
-      <c r="J54" s="5"/>
-    </row>
-    <row r="55" spans="3:10" s="1" customFormat="1">
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-    </row>
-    <row r="56" spans="3:10" s="1" customFormat="1">
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5"/>
-    </row>
-    <row r="57" spans="3:10" s="1" customFormat="1">
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-    </row>
-    <row r="58" spans="3:10" s="1" customFormat="1">
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5"/>
-    </row>
-    <row r="59" spans="3:10" s="1" customFormat="1">
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-    </row>
-    <row r="60" spans="3:10" s="1" customFormat="1">
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5"/>
-    </row>
-    <row r="61" spans="3:10" s="1" customFormat="1">
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
-      <c r="J61" s="5"/>
-    </row>
-    <row r="62" spans="3:10" s="1" customFormat="1">
-      <c r="C62" s="11"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-    </row>
-    <row r="63" spans="3:10" s="1" customFormat="1">
-      <c r="C63" s="11"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5"/>
-    </row>
-    <row r="64" spans="3:10" s="1" customFormat="1">
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5"/>
-    </row>
-    <row r="65" spans="3:16" s="1" customFormat="1">
-      <c r="C65" s="11"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5"/>
-    </row>
-    <row r="66" spans="3:16" s="1" customFormat="1">
-      <c r="C66" s="11"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5"/>
-    </row>
-    <row r="67" spans="3:16" s="1" customFormat="1">
-      <c r="C67" s="11"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-    </row>
-    <row r="68" spans="3:16" s="1" customFormat="1">
-      <c r="C68" s="11"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-    </row>
-    <row r="69" spans="3:16" s="1" customFormat="1">
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-    </row>
-    <row r="70" spans="3:16" ht="15.75">
-      <c r="C70" s="10"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5"/>
-      <c r="K70" s="1"/>
-      <c r="L70" s="1"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="3:16" s="1" customFormat="1">
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5"/>
-    </row>
-    <row r="72" spans="3:16" s="1" customFormat="1">
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
-      <c r="J72" s="5"/>
-    </row>
-    <row r="73" spans="3:16" s="1" customFormat="1">
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-    </row>
-    <row r="74" spans="3:16" s="1" customFormat="1">
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-    </row>
-    <row r="75" spans="3:16" s="1" customFormat="1">
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-    </row>
-    <row r="76" spans="3:16" s="1" customFormat="1">
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-    </row>
-    <row r="77" spans="3:16" s="1" customFormat="1">
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-    </row>
-    <row r="78" spans="3:16" s="1" customFormat="1">
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-    </row>
-    <row r="79" spans="3:16" s="1" customFormat="1" ht="15.75">
-      <c r="H79" s="5"/>
-      <c r="I79" s="9"/>
-      <c r="J79" s="5"/>
-    </row>
-    <row r="80" spans="3:16" s="1" customFormat="1">
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5"/>
-    </row>
-    <row r="81" spans="8:10" s="1" customFormat="1">
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
-      <c r="J81" s="5"/>
-    </row>
-    <row r="82" spans="8:10" s="1" customFormat="1">
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
 </file>
--- a/input/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
+++ b/input/resources/source-data/capstatements-spreadsheets/query-requester.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Notifications\input\resources\source-data\capstatements-spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-Alerts\input\resources\source-data\capstatements-spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8026B241-E1E4-4AEE-8C61-FF3B8FF304B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A8DF7E-36D7-4808-8CA1-51CEBC06E72C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1785" yWindow="1095" windowWidth="25200" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3855" yWindow="3855" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="1" r:id="rId1"/>
@@ -343,15 +343,9 @@
     <t>source</t>
   </si>
   <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/input/</t>
-  </si>
-  <si>
     <t>packagepath</t>
   </si>
   <si>
-    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Notifications/output/</t>
-  </si>
-  <si>
     <t>pre</t>
   </si>
   <si>
@@ -395,6 +389,12 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-alerts/ImplementationGuide/hl7.fhir.us.davinci-alerts|1.0.0</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Alerts/input/</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-Alerts/output/</t>
   </si>
 </sst>
 </file>
@@ -870,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -901,7 +901,7 @@
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="1" customFormat="1">
@@ -909,7 +909,7 @@
         <v>85</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="105" customHeight="1">
@@ -917,7 +917,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -925,7 +925,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1522,8 +1522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C0A030F-FC2A-4051-9281-CA8073C0AEA3}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1541,55 +1541,55 @@
         <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1626,7 +1626,7 @@
         <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
